--- a/xlsx/维基百科编辑手册_intext.xlsx
+++ b/xlsx/维基百科编辑手册_intext.xlsx
@@ -29,13 +29,13 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_维基百科编辑手册</t>
+    <t>政策_政策_维基百科_维基百科编辑手册</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>耶魯大學出版社</t>
+    <t>耶鲁大学出版社</t>
   </si>
 </sst>
 </file>
